--- a/results/tables/wholespectra_results/biased_age_males_pred.xlsx
+++ b/results/tables/wholespectra_results/biased_age_males_pred.xlsx
@@ -501,10 +501,10 @@
         <v>0.6710526315789473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6631578947368422</v>
+        <v>0.6552631578947368</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6815789473684211</v>
+        <v>0.6763157894736842</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         <v>0.8894736842105264</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8605263157894736</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="F3" t="n">
         <v>0.8131578947368421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8552631578947368</v>
+        <v>0.8763157894736843</v>
       </c>
       <c r="H3" t="n">
-        <v>0.881578947368421</v>
+        <v>0.8710526315789474</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.85</v>
+        <v>0.8368421052631578</v>
       </c>
       <c r="F4" t="n">
         <v>0.8052631578947368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8315789473684211</v>
+        <v>0.8263157894736842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.844736842105263</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>0.6868421052631579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7052631578947368</v>
+        <v>0.7289473684210527</v>
       </c>
       <c r="F5" t="n">
         <v>0.6763157894736842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.6368421052631579</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6947368421052631</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="6">
@@ -615,16 +615,16 @@
         <v>0.7162162162162162</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8162162162162163</v>
+        <v>0.8135135135135135</v>
       </c>
       <c r="F6" t="n">
         <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5486486486486487</v>
+        <v>0.5621621621621622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7837837837837839</v>
+        <v>0.7810810810810811</v>
       </c>
     </row>
     <row r="7">
@@ -647,16 +647,16 @@
         <v>0.9378378378378379</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8837837837837836</v>
+        <v>0.8972972972972973</v>
       </c>
       <c r="F7" t="n">
         <v>0.845945945945946</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9378378378378377</v>
+        <v>0.9351351351351351</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8837837837837839</v>
       </c>
     </row>
     <row r="8">
@@ -675,16 +675,16 @@
         <v>0.8918918918918918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.845945945945946</v>
+        <v>0.8621621621621622</v>
       </c>
       <c r="F8" t="n">
         <v>0.7972972972972971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.908108108108108</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8432432432432433</v>
+        <v>0.8405405405405405</v>
       </c>
     </row>
     <row r="9">
@@ -703,16 +703,16 @@
         <v>0.7243243243243244</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7513513513513513</v>
+        <v>0.7648648648648649</v>
       </c>
       <c r="F9" t="n">
         <v>0.6513513513513514</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5837837837837838</v>
+        <v>0.5891891891891892</v>
       </c>
       <c r="H9" t="n">
-        <v>0.754054054054054</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
   </sheetData>
